--- a/train.xlsx
+++ b/train.xlsx
@@ -1,21 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padig\Desktop\assig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A661D6C4-C4E5-49A9-804E-823A8735B688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +89,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +175,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +227,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,41 +420,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>55.33</v>
       </c>
@@ -395,13 +457,13 @@
         <v>54</v>
       </c>
       <c r="D2">
-        <v>1.66219</v>
+        <v>1.6621900000000001</v>
       </c>
       <c r="E2">
         <v>92.19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>56.43</v>
       </c>
@@ -418,7 +480,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>55.98</v>
       </c>
@@ -435,7 +497,7 @@
         <v>92.56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>56.16</v>
       </c>
@@ -446,13 +508,13 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>1.68034</v>
+        <v>1.6803399999999999</v>
       </c>
       <c r="E5">
         <v>92.61</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>54.52</v>
       </c>
@@ -469,7 +531,7 @@
         <v>91.56</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>54.12</v>
       </c>
@@ -480,13 +542,13 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>1.57818</v>
+        <v>1.5781799999999999</v>
       </c>
       <c r="E7">
         <v>92.17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51.72</v>
       </c>
@@ -497,13 +559,13 @@
         <v>56</v>
       </c>
       <c r="D8">
-        <v>1.60401</v>
+        <v>1.6040099999999999</v>
       </c>
       <c r="E8">
         <v>92.75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>54.76</v>
       </c>
@@ -520,7 +582,7 @@
         <v>92.55</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53.34</v>
       </c>
@@ -531,13 +593,13 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>1.60228</v>
+        <v>1.6022799999999999</v>
       </c>
       <c r="E10">
         <v>92.42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>54.84</v>
       </c>
@@ -551,10 +613,10 @@
         <v>1.54949</v>
       </c>
       <c r="E11">
-        <v>92.43000000000001</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>92.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53.54</v>
       </c>
@@ -571,7 +633,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>57.88</v>
       </c>
@@ -588,7 +650,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60.93</v>
       </c>
@@ -599,13 +661,13 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>1.53995</v>
+        <v>1.5399499999999999</v>
       </c>
       <c r="E14">
         <v>92.48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56.6</v>
       </c>
@@ -616,13 +678,13 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>1.54777</v>
+        <v>1.5477700000000001</v>
       </c>
       <c r="E15">
-        <v>91.37000000000001</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>91.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>59.94</v>
       </c>
@@ -639,7 +701,7 @@
         <v>91.25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>58.3</v>
       </c>
@@ -650,13 +712,13 @@
         <v>62</v>
       </c>
       <c r="D17">
-        <v>1.29994</v>
+        <v>1.2999400000000001</v>
       </c>
       <c r="E17">
-        <v>90.76000000000001</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>90.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>59.79</v>
       </c>
@@ -667,13 +729,13 @@
         <v>62</v>
       </c>
       <c r="D18">
-        <v>1.30621</v>
+        <v>1.3062100000000001</v>
       </c>
       <c r="E18">
         <v>90.83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57.51</v>
       </c>
@@ -684,13 +746,13 @@
         <v>60</v>
       </c>
       <c r="D19">
-        <v>1.29842</v>
+        <v>1.2984199999999999</v>
       </c>
       <c r="E19">
-        <v>92.18000000000001</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>92.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>62.82</v>
       </c>
@@ -707,7 +769,7 @@
         <v>91.73</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>65.08</v>
       </c>
@@ -721,10 +783,10 @@
         <v>1.6894</v>
       </c>
       <c r="E21">
-        <v>91.45999999999999</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>91.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>65.58</v>
       </c>
@@ -741,7 +803,7 @@
         <v>91.44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>65.64</v>
       </c>
@@ -758,7 +820,7 @@
         <v>91.56</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>67.84</v>
       </c>
@@ -775,9 +837,9 @@
         <v>92.09</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>73.74</v>
+        <v>73.739999999999995</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -786,13 +848,13 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>1.73496</v>
+        <v>1.7349600000000001</v>
       </c>
       <c r="E25">
         <v>90.64</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>72.66</v>
       </c>
@@ -809,7 +871,7 @@
         <v>91.09</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>68.81</v>
       </c>
@@ -820,13 +882,13 @@
         <v>55</v>
       </c>
       <c r="D27">
-        <v>1.69836</v>
+        <v>1.6983600000000001</v>
       </c>
       <c r="E27">
-        <v>91.01000000000001</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>91.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>66.61</v>
       </c>
@@ -837,13 +899,13 @@
         <v>52</v>
       </c>
       <c r="D28">
-        <v>1.77967</v>
+        <v>1.7796700000000001</v>
       </c>
       <c r="E28">
-        <v>91.90000000000001</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>63.66</v>
       </c>
@@ -860,7 +922,7 @@
         <v>91.92</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>67.19</v>
       </c>
@@ -877,7 +939,7 @@
         <v>92.16</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>62.34</v>
       </c>
@@ -888,13 +950,13 @@
         <v>48</v>
       </c>
       <c r="D31">
-        <v>2.00677</v>
+        <v>2.0067699999999999</v>
       </c>
       <c r="E31">
-        <v>92.68000000000001</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>92.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>62.98</v>
       </c>
@@ -911,7 +973,7 @@
         <v>92.88</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>65.09</v>
       </c>
@@ -925,12 +987,12 @@
         <v>1.45939</v>
       </c>
       <c r="E33">
-        <v>90.29000000000001</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>90.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>64.70999999999999</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="B34">
         <v>0.61</v>
@@ -942,10 +1004,10 @@
         <v>1.38934</v>
       </c>
       <c r="E34">
-        <v>90.70999999999999</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>90.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>64.05</v>
       </c>
@@ -962,7 +1024,7 @@
         <v>90.41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>71.11</v>
       </c>
@@ -979,26 +1041,26 @@
         <v>89.98</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>69.05</v>
       </c>
       <c r="B37">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C37">
         <v>60</v>
       </c>
       <c r="D37">
-        <v>1.54605</v>
+        <v>1.5460499999999999</v>
       </c>
       <c r="E37">
         <v>90</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>71.99</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="B38">
         <v>1.28</v>
@@ -1013,7 +1075,7 @@
         <v>89.66</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>72.16</v>
       </c>
@@ -1024,13 +1086,13 @@
         <v>56</v>
       </c>
       <c r="D39">
-        <v>1.55242</v>
+        <v>1.5524199999999999</v>
       </c>
       <c r="E39">
         <v>90.59</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>70.97</v>
       </c>
@@ -1041,13 +1103,13 @@
         <v>55</v>
       </c>
       <c r="D40">
-        <v>1.45728</v>
+        <v>1.4572799999999999</v>
       </c>
       <c r="E40">
         <v>91.06</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>70.55</v>
       </c>
@@ -1058,15 +1120,15 @@
         <v>52</v>
       </c>
       <c r="D41">
-        <v>1.26174</v>
+        <v>1.2617400000000001</v>
       </c>
       <c r="E41">
         <v>90.69</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1075,15 +1137,15 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>1.4221</v>
+        <v>1.4220999999999999</v>
       </c>
       <c r="E42">
         <v>90.36</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>75.54000000000001</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1092,13 +1154,13 @@
         <v>55</v>
       </c>
       <c r="D43">
-        <v>1.67219</v>
+        <v>1.6721900000000001</v>
       </c>
       <c r="E43">
-        <v>90.56999999999999</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>90.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49.14</v>
       </c>
@@ -1109,13 +1171,13 @@
         <v>40</v>
       </c>
       <c r="D44">
-        <v>2.1714</v>
+        <v>2.1714000000000002</v>
       </c>
       <c r="E44">
         <v>94.17</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44.64</v>
       </c>
@@ -1129,12 +1191,12 @@
         <v>2.08081</v>
       </c>
       <c r="E45">
-        <v>94.65000000000001</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>94.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="B46">
         <v>10.76</v>
@@ -1143,13 +1205,13 @@
         <v>41</v>
       </c>
       <c r="D46">
-        <v>2.1707</v>
+        <v>2.1707000000000001</v>
       </c>
       <c r="E46">
         <v>97.61</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.53</v>
       </c>
@@ -1160,30 +1222,30 @@
         <v>40</v>
       </c>
       <c r="D47">
-        <v>1.99418</v>
+        <v>1.9941800000000001</v>
       </c>
       <c r="E47">
         <v>97.08</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>64.81</v>
       </c>
       <c r="B48">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C48">
         <v>54</v>
       </c>
       <c r="D48">
-        <v>1.69592</v>
+        <v>1.6959200000000001</v>
       </c>
       <c r="E48">
         <v>91.61</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>63.13</v>
       </c>
@@ -1194,13 +1256,13 @@
         <v>52</v>
       </c>
       <c r="D49">
-        <v>1.66118</v>
+        <v>1.6611800000000001</v>
       </c>
       <c r="E49">
         <v>92.17</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63.48</v>
       </c>
@@ -1211,7 +1273,7 @@
         <v>52</v>
       </c>
       <c r="D50">
-        <v>1.48216</v>
+        <v>1.4821599999999999</v>
       </c>
       <c r="E50">
         <v>91.56</v>
